--- a/downloaded_files/EECS304_Tutorial-35310.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35310.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,15 +310,6 @@
   </x:si>
   <x:si>
     <x:t>Mariam Raafat Mohammed Farahat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>معاذ محمد السيد هاشم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moaz Mohamed Alsayed Hashem</x:t>
   </x:si>
   <x:si>
     <x:t>1230287</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.664516088</x:v>
+        <x:v>45907.4307258449</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4307258449</x:v>
+        <x:v>45907.4382828704</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.4382828704</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Control-1 (EECS304) Location : [20506]20506-45-الجيزة الرئيسي Time : Monday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS304_Tutorial-35310.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35310.xlsx
@@ -1122,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.5040743866</x:v>
+        <x:v>45927.4705346412</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>

--- a/downloaded_files/EECS304_Tutorial-35310.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35310.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>Mariam Raafat Mohammed Farahat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند محمد فتحى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohaned Mohammed fathy</x:t>
   </x:si>
   <x:si>
     <x:t>1230287</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1826,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4307258449</x:v>
+        <x:v>45927.9337043171</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4382828704</x:v>
+        <x:v>45907.4307258449</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1885,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.4382828704</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Control-1 (EECS304) Location : [20506]20506-45-الجيزة الرئيسي Time : Monday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS304_Tutorial-35310.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35310.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Retaj hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى طارق عوض مرعى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Tarek Awad Ali Marei</x:t>
   </x:si>
   <x:si>
     <x:t>1230058</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1387,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.0284867708</x:v>
+        <x:v>45928.3955232986</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4252987268</x:v>
+        <x:v>45913.0284867708</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45907.4252987268</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4200689468</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.420471412</x:v>
+        <x:v>45907.4200689468</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4219015394</x:v>
+        <x:v>45907.420471412</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4586340625</x:v>
+        <x:v>45907.4219015394</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.414474919</x:v>
+        <x:v>45907.4586340625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45907.414474919</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.9989574884</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4144641204</x:v>
+        <x:v>45912.9989574884</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.733365625</x:v>
+        <x:v>45907.4144641204</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4200497338</x:v>
+        <x:v>45909.733365625</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.9337043171</x:v>
+        <x:v>45907.4200497338</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4307258449</x:v>
+        <x:v>45927.9337043171</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4382828704</x:v>
+        <x:v>45907.4307258449</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.4382828704</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS304_Tutorial-35310.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35310.xlsx
@@ -327,7 +327,7 @@
     <x:t>مهند محمد فتحى محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohaned Mohammed fathy</x:t>
+    <x:t xml:space="preserve"> Mohaned Mohammed fathy Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1230287</x:t>
@@ -345,7 +345,7 @@
     <x:t>يوسف ناصر سيد منسي ابراهيم</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssef Nasser Sayed Mansy</x:t>
+    <x:t>YOUSSEF NASSER SAYED MANSY IBRAHIM</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/downloaded_files/EECS304_Tutorial-35310.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35310.xlsx
@@ -39,7 +39,7 @@
     <x:t>أحمد محمد سيد صابر محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Sayed Saber</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Sayed Saber Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1230003</x:t>
